--- a/testdata/Input_Data.xlsx
+++ b/testdata/Input_Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\AutomationFrameworks\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3DCD11-A30F-4569-9AC0-6E9992E7D049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7329DD0-1034-42C6-8921-320D96A3D2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5043F52-542C-4C84-8089-5F0B92E866B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="EndtoEndFlow" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,31 +34,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>username</t>
+    <t>Nikhil</t>
   </si>
   <si>
-    <t>nikhil</t>
+    <t>Darji</t>
   </si>
   <si>
-    <t>productname</t>
+    <t>postalCode</t>
   </si>
   <si>
-    <t>shirt</t>
+    <t xml:space="preserve">lastName </t>
+  </si>
+  <si>
+    <t>firstName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF66E1F8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,12 +86,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,32 +426,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E28EF22-65CE-4DCA-A431-86D6B542A2F5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A6:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A6" sqref="A6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B8" s="3">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
